--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohdsalekhan/PycharmProjects/MainAssigmentAPI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohdsalekhan/PycharmProjects/MainAssigmentAPItesting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB898F0-DBBB-F240-AED8-BFCF9D1072C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91EE9A4-2BD3-0B4A-84F8-3CB3AD4C5553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15320" xr2:uid="{C43389F3-F0D2-EC4F-B516-74CB36D3BEC2}"/>
+    <workbookView xWindow="780" yWindow="800" windowWidth="27640" windowHeight="15320" xr2:uid="{C43389F3-F0D2-EC4F-B516-74CB36D3BEC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>name</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>skip</t>
+  </si>
+  <si>
+    <t>loginusernegative</t>
   </si>
 </sst>
 </file>
@@ -524,8 +527,8 @@
   </sheetPr>
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="O1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -678,6 +681,17 @@
         <v>31</v>
       </c>
     </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
     <row r="8" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G25" s="3"/>
@@ -687,6 +701,7 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{6742A186-5A9D-614D-BD57-3982EA8666B5}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{51433ADE-BB29-6448-AF38-E5FB22865CAE}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{903E39EB-08EE-B94A-A3B2-2F57A5362782}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
